--- a/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2012-至今)/应收账款净额.xlsx
+++ b/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2012-至今)/应收账款净额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ10"/>
+  <dimension ref="A1:AQ12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1842,6 +1842,272 @@
         <v>475.46</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9898.389999999999</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2788.22</v>
+      </c>
+      <c r="D11" t="n">
+        <v>464.78</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3345.98</v>
+      </c>
+      <c r="G11" t="n">
+        <v>8626.9</v>
+      </c>
+      <c r="H11" t="n">
+        <v>652.62</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5249.87</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1237.94</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1130.87</v>
+      </c>
+      <c r="L11" t="n">
+        <v>677.16</v>
+      </c>
+      <c r="M11" t="n">
+        <v>397.27</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1366.7</v>
+      </c>
+      <c r="O11" t="n">
+        <v>4108.04</v>
+      </c>
+      <c r="P11" t="n">
+        <v>288.51</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1015.74</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5181.47</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1008.72</v>
+      </c>
+      <c r="T11" t="n">
+        <v>14815.38</v>
+      </c>
+      <c r="U11" t="n">
+        <v>311.17</v>
+      </c>
+      <c r="V11" t="n">
+        <v>4181.14</v>
+      </c>
+      <c r="W11" t="n">
+        <v>971.79</v>
+      </c>
+      <c r="X11" t="n">
+        <v>11609.08</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>20311.48</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1090.82</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2048.45</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>591.02</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>2997.58</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1842.14</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>194094.18</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>35186.45</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>12029.24</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1928.95</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>1121.35</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>437.58</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>8199.9</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>4946.68</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>15643.16</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>542.63</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>2103.95</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>3151</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>593.11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11488.5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3028.4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>296</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3715.8</v>
+      </c>
+      <c r="G12" t="n">
+        <v>9350.299999999999</v>
+      </c>
+      <c r="H12" t="n">
+        <v>723.8</v>
+      </c>
+      <c r="I12" t="n">
+        <v>6013</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1256</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1212.2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>857.8</v>
+      </c>
+      <c r="M12" t="n">
+        <v>455.1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1419.3</v>
+      </c>
+      <c r="O12" t="n">
+        <v>4796.4</v>
+      </c>
+      <c r="P12" t="n">
+        <v>324.9</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1131</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5466.7</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1312.6</v>
+      </c>
+      <c r="T12" t="n">
+        <v>18592.7</v>
+      </c>
+      <c r="U12" t="n">
+        <v>367.2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>5320.1</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1144.3</v>
+      </c>
+      <c r="X12" t="n">
+        <v>13502.9</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>25166.8</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1133.9</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2548</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>647.9</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>3031.6</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1839.6</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>216466.2</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>36971</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>12745.2</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1991.6</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>1421.6</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>524.7</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>8464.1</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>3785.3</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>17158</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>596.1</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>2566.9</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>3454.5</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>642.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
